--- a/src/main/resources/testdata/Check_That_UserCanSearchForAnExisting_GF_Synonyms.xlsx
+++ b/src/main/resources/testdata/Check_That_UserCanSearchForAnExisting_GF_Synonyms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="12510" windowHeight="6210"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="13305" windowHeight="5790"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -41,9 +41,6 @@
   </si>
   <si>
     <t xml:space="preserve">sourcespecies </t>
-  </si>
-  <si>
-    <t>synonyms</t>
   </si>
   <si>
     <t xml:space="preserve">
@@ -66,6 +63,9 @@
   </si>
   <si>
     <t>Q2_Existing_Synonyms</t>
+  </si>
+  <si>
+    <t>exist_synonyms</t>
   </si>
 </sst>
 </file>
@@ -409,7 +409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
       <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
@@ -458,7 +458,7 @@
         <v>7</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
     </row>
     <row r="2" spans="1:8" ht="180" x14ac:dyDescent="0.25">
@@ -466,16 +466,16 @@
         <v>1</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>4</v>
@@ -484,7 +484,7 @@
         <v>6</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/testdata/Check_That_UserCanSearchForAnExisting_GF_Synonyms.xlsx
+++ b/src/main/resources/testdata/Check_That_UserCanSearchForAnExisting_GF_Synonyms.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1125" windowWidth="13305" windowHeight="5790"/>
+    <workbookView xWindow="0" yWindow="1125" windowWidth="12735" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -409,8 +409,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
